--- a/mseplots_ph_sbmir.xlsx
+++ b/mseplots_ph_sbmir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darkroom\Joshua\mainlatest\FRCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FA940C-A858-460E-9C96-BCDB9BE088FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6D1058-2343-44BE-A97E-AF9ABAB05725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{388B4D51-8AF7-4A8C-941E-E958683FE4A4}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{DAC57ABC-1604-4A41-BF78-554C38DE4F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D4C8AB-AEAE-4C90-91D2-7F6E4E08F7C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0660DE43-507D-4A03-A86F-92B6ECFD8F21}">
   <dimension ref="A2:C171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -415,10 +415,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.9226104348305681</v>
+        <v>3.2941343574544528</v>
       </c>
       <c r="C2">
-        <v>2.6846696852136125</v>
+        <v>3.0568066742004953</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -426,10 +426,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.8450750218702012</v>
+        <v>3.4498053544681748</v>
       </c>
       <c r="C3">
-        <v>1.9815918706856317</v>
+        <v>2.1372680031927795</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -437,10 +437,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.4461490656312486</v>
+        <v>2.8695649051431555</v>
       </c>
       <c r="C4">
-        <v>1.5703287772734695</v>
+        <v>1.4472223779019482</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -448,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.2084949591686578</v>
+        <v>2.5133568558736634</v>
       </c>
       <c r="C5">
-        <v>1.3402269383772853</v>
+        <v>1.1591523736024787</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,10 +459,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.0527632420313946</v>
+        <v>2.2788696361652305</v>
       </c>
       <c r="C6">
-        <v>1.2347856812695326</v>
+        <v>0.98866726586086739</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,10 +470,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.9248592435817884</v>
+        <v>2.1237662358602019</v>
       </c>
       <c r="C7">
-        <v>1.1726499612442132</v>
+        <v>0.84418557000501404</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,10 +481,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.8329589759282572</v>
+        <v>1.9711586234585445</v>
       </c>
       <c r="C8">
-        <v>1.1367044052345954</v>
+        <v>0.77641230422540086</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,10 +492,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.7777498668966478</v>
+        <v>1.8962536355255122</v>
       </c>
       <c r="C9">
-        <v>1.1061011210937068</v>
+        <v>0.73818313307798034</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,10 +503,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.7335544042985815</v>
+        <v>1.8391542626764887</v>
       </c>
       <c r="C10">
-        <v>1.1250396538385345</v>
+        <v>0.68927575738053593</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,10 +514,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.7013533382167472</v>
+        <v>1.7327642949041262</v>
       </c>
       <c r="C11">
-        <v>1.1250899635631009</v>
+        <v>0.62195746534930796</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,10 +525,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.6698271282456949</v>
+        <v>1.7114442011597653</v>
       </c>
       <c r="C12">
-        <v>1.1069661354459648</v>
+        <v>0.57404794037451989</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,10 +536,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.619591878791758</v>
+        <v>1.673355757098248</v>
       </c>
       <c r="C13">
-        <v>1.1008762419165417</v>
+        <v>0.54587567387932234</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,10 +547,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.6051516455483614</v>
+        <v>1.6212003897341167</v>
       </c>
       <c r="C14">
-        <v>1.0792249870199049</v>
+        <v>0.51975680014906045</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,10 +558,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.5842089409462545</v>
+        <v>1.576996673421776</v>
       </c>
       <c r="C15">
-        <v>1.0843144748135294</v>
+        <v>0.48324510269164639</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,10 +569,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.5710442897264263</v>
+        <v>1.5678269461587928</v>
       </c>
       <c r="C16">
-        <v>1.0815961854564338</v>
+        <v>0.47443938075664038</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.5631666422146677</v>
+        <v>1.5476772409557216</v>
       </c>
       <c r="C17">
-        <v>1.0405955069934523</v>
+        <v>0.43000979919776483</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,10 +591,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.5443505077114554</v>
+        <v>1.521063686041735</v>
       </c>
       <c r="C18">
-        <v>0.98705018095227248</v>
+        <v>0.40912524857962729</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,10 +602,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.5230709120520587</v>
+        <v>1.5212520866526966</v>
       </c>
       <c r="C19">
-        <v>0.95855752737479349</v>
+        <v>0.40703732670006937</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,10 +613,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.5219492170572959</v>
+        <v>1.4808266484345569</v>
       </c>
       <c r="C20">
-        <v>0.89362817566751673</v>
+        <v>0.38197383538774227</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,10 +624,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.5170765087193041</v>
+        <v>1.4693358027223795</v>
       </c>
       <c r="C21">
-        <v>0.86544736706804992</v>
+        <v>0.38038276414458577</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,10 +635,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.5152697348781852</v>
+        <v>1.437542218550292</v>
       </c>
       <c r="C22">
-        <v>0.84466754355017937</v>
+        <v>0.35358917428746267</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,10 +646,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1.4958107511227154</v>
+        <v>1.4082571765205416</v>
       </c>
       <c r="C23">
-        <v>0.81801720613422291</v>
+        <v>0.34459030966028054</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,10 +657,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.4836603917302862</v>
+        <v>1.4032084109572782</v>
       </c>
       <c r="C24">
-        <v>0.78625462110938704</v>
+        <v>0.33478750880352864</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -668,10 +668,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.4965816522290885</v>
+        <v>1.3877525765014216</v>
       </c>
       <c r="C25">
-        <v>0.75728644886605812</v>
+        <v>0.35095569529810888</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,10 +679,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.4895952491242088</v>
+        <v>1.3593119828516591</v>
       </c>
       <c r="C26">
-        <v>0.72699125509015938</v>
+        <v>0.35103715077763281</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,10 +690,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.4834711146502024</v>
+        <v>1.3664862558350674</v>
       </c>
       <c r="C27">
-        <v>0.71357818692047403</v>
+        <v>0.36843887952870785</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,10 +701,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.4641748528073688</v>
+        <v>1.337834116057385</v>
       </c>
       <c r="C28">
-        <v>0.68253241200764803</v>
+        <v>0.3528966863398606</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,10 +712,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1.4635179852105664</v>
+        <v>1.3228377020960957</v>
       </c>
       <c r="C29">
-        <v>0.64386870164162413</v>
+        <v>0.34918105678853195</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,10 +723,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1.4637782071759684</v>
+        <v>1.2908306387506854</v>
       </c>
       <c r="C30">
-        <v>0.64677636979601305</v>
+        <v>0.34347185336496239</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,10 +734,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.4585540425026247</v>
+        <v>1.2905253685914448</v>
       </c>
       <c r="C31">
-        <v>0.61734390865782862</v>
+        <v>0.3206158938711472</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,10 +745,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1.4497141109401961</v>
+        <v>1.2915379020283646</v>
       </c>
       <c r="C32">
-        <v>0.59872962004849173</v>
+        <v>0.29747638912847135</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.4569372777152876</v>
+        <v>1.2678287230966212</v>
       </c>
       <c r="C33">
-        <v>0.5979121975417413</v>
+        <v>0.29046735328716489</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,10 +767,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1.4636008726061067</v>
+        <v>1.253396280089766</v>
       </c>
       <c r="C34">
-        <v>0.57099278686840182</v>
+        <v>0.27559944506424999</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,10 +778,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1.4499464044507584</v>
+        <v>1.2547859116033464</v>
       </c>
       <c r="C35">
-        <v>0.56904505634074454</v>
+        <v>0.27102657624732623</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,10 +789,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1.4656287716927681</v>
+        <v>1.2319609040131876</v>
       </c>
       <c r="C36">
-        <v>0.55204952101971416</v>
+        <v>0.26670562249966018</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,10 +800,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1.4231368322822682</v>
+        <v>1.202086147822113</v>
       </c>
       <c r="C37">
-        <v>0.54196039330844881</v>
+        <v>0.26584351159113967</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,10 +811,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1.4269360994287341</v>
+        <v>1.18483180968321</v>
       </c>
       <c r="C38">
-        <v>0.52768985456681239</v>
+        <v>0.24400792073906907</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,10 +822,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1.4247626703276097</v>
+        <v>1.1689692258958457</v>
       </c>
       <c r="C39">
-        <v>0.52735142415758673</v>
+        <v>0.24635747675804914</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,10 +833,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1.4076400998198884</v>
+        <v>1.1603980404797878</v>
       </c>
       <c r="C40">
-        <v>0.51132859466286074</v>
+        <v>0.24675356872567739</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -844,10 +844,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1.4085954516082597</v>
+        <v>1.1487941757612328</v>
       </c>
       <c r="C41">
-        <v>0.51251131027010866</v>
+        <v>0.23335383899798159</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,10 +855,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1.3995755309100721</v>
+        <v>1.1527233364167178</v>
       </c>
       <c r="C42">
-        <v>0.51739760432316884</v>
+        <v>0.22084169967715447</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,10 +866,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1.3946618882313906</v>
+        <v>1.1537128538158243</v>
       </c>
       <c r="C43">
-        <v>0.5135188818441242</v>
+        <v>0.22227076376597288</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -877,10 +877,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1.3925606585083323</v>
+        <v>1.1675113450801273</v>
       </c>
       <c r="C44">
-        <v>0.49833099574731515</v>
+        <v>0.22166865564219612</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -888,10 +888,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1.3864205088094836</v>
+        <v>1.1727173257066525</v>
       </c>
       <c r="C45">
-        <v>0.48764803283284136</v>
+        <v>0.22170236357119605</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,10 +899,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1.3932550433493165</v>
+        <v>1.151936264501304</v>
       </c>
       <c r="C46">
-        <v>0.48912388401266127</v>
+        <v>0.22756488003792685</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,10 +910,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1.3858083029342532</v>
+        <v>1.1700719809589939</v>
       </c>
       <c r="C47">
-        <v>0.49175563242016074</v>
+        <v>0.22140333697233025</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -921,10 +921,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1.3558075010363768</v>
+        <v>1.1458825053693471</v>
       </c>
       <c r="C48">
-        <v>0.48929805676385885</v>
+        <v>0.22663971216345671</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -932,10 +932,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1.372671279412651</v>
+        <v>1.1654191445695041</v>
       </c>
       <c r="C49">
-        <v>0.4631619841647085</v>
+        <v>0.23638062668028326</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1.3638122660506125</v>
+        <v>1.1326917184608134</v>
       </c>
       <c r="C50">
-        <v>0.46151150476781228</v>
+        <v>0.24181101830052579</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,10 +954,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1.3590133170173868</v>
+        <v>1.0998925106043294</v>
       </c>
       <c r="C51">
-        <v>0.45959073160951502</v>
+        <v>0.22703627764806888</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -965,10 +965,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1.3601937837660907</v>
+        <v>1.1169027590278895</v>
       </c>
       <c r="C52">
-        <v>0.42892469642193715</v>
+        <v>0.22337966699398684</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -976,10 +976,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1.348908794850072</v>
+        <v>1.1231361431914253</v>
       </c>
       <c r="C53">
-        <v>0.42328917638941277</v>
+        <v>0.22742722631700002</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,10 +987,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1.349916273841701</v>
+        <v>1.1247054501579308</v>
       </c>
       <c r="C54">
-        <v>0.41657089571540085</v>
+        <v>0.22935423936769836</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,10 +998,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1.3408323129683613</v>
+        <v>1.1136401857212916</v>
       </c>
       <c r="C55">
-        <v>0.41705175184085136</v>
+        <v>0.22165892613823948</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1009,10 +1009,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1.3364075630730403</v>
+        <v>1.0948604040275067</v>
       </c>
       <c r="C56">
-        <v>0.41791923255014896</v>
+        <v>0.20055131376870697</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,10 +1020,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1.3384884727503141</v>
+        <v>1.0610907691737246</v>
       </c>
       <c r="C57">
-        <v>0.40435189431607627</v>
+        <v>0.20043644322008083</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1031,10 +1031,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1.3348780943005867</v>
+        <v>1.0727264500107923</v>
       </c>
       <c r="C58">
-        <v>0.39928712214707429</v>
+        <v>0.20191480963098044</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1042,10 +1042,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1.3268242646786512</v>
+        <v>1.0548181276722044</v>
       </c>
       <c r="C59">
-        <v>0.40273652322933901</v>
+        <v>0.19965711724128832</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,10 +1053,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1.3154050313491328</v>
+        <v>1.0796486162115901</v>
       </c>
       <c r="C60">
-        <v>0.39601947643589958</v>
+        <v>0.20568124861714335</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,10 +1064,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1.3271298146642447</v>
+        <v>1.0717718068114825</v>
       </c>
       <c r="C61">
-        <v>0.38270102832063047</v>
+        <v>0.20702350010559786</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,10 +1075,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1.3032863512730968</v>
+        <v>1.0593371529781941</v>
       </c>
       <c r="C62">
-        <v>0.37773018888981064</v>
+        <v>0.20707921280500827</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1086,10 +1086,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1.3123697498418516</v>
+        <v>1.0585303359676017</v>
       </c>
       <c r="C63">
-        <v>0.38702452530168691</v>
+        <v>0.21853977422979193</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1097,10 +1097,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1.3052067005862711</v>
+        <v>1.0548078283467195</v>
       </c>
       <c r="C64">
-        <v>0.36542379193020835</v>
+        <v>0.21049592685598559</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,10 +1108,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1.315572235862603</v>
+        <v>1.0600783191780436</v>
       </c>
       <c r="C65">
-        <v>0.36772781587677683</v>
+        <v>0.20890646188018036</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1119,10 +1119,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1.2783953205082974</v>
+        <v>1.0650776193827918</v>
       </c>
       <c r="C66">
-        <v>0.35421814509152938</v>
+        <v>0.20827009113954884</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1130,10 +1130,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1.2589107033940783</v>
+        <v>1.0458634065576016</v>
       </c>
       <c r="C67">
-        <v>0.35969579052487932</v>
+        <v>0.19237758613707182</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1141,10 +1141,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1.2693022566083789</v>
+        <v>1.0496389625311116</v>
       </c>
       <c r="C68">
-        <v>0.36295868458184022</v>
+        <v>0.19921932119953017</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1152,10 +1152,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1.2872250478548677</v>
+        <v>1.0554617275082392</v>
       </c>
       <c r="C69">
-        <v>0.36720668570203757</v>
+        <v>0.20410007815296599</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1163,10 +1163,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1.2917792426253842</v>
+        <v>1.0569472693989368</v>
       </c>
       <c r="C70">
-        <v>0.34826393737042061</v>
+        <v>0.20560143438331949</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1174,10 +1174,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1.2672288638766513</v>
+        <v>1.0529283545226948</v>
       </c>
       <c r="C71">
-        <v>0.35123584945033942</v>
+        <v>0.2066111270023383</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1185,10 +1185,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1.2703136542743465</v>
+        <v>1.0498677622021473</v>
       </c>
       <c r="C72">
-        <v>0.34715245948570433</v>
+        <v>0.20574721091113068</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,10 +1196,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1.2850551924399551</v>
+        <v>1.0530807553830932</v>
       </c>
       <c r="C73">
-        <v>0.35306238632336878</v>
+        <v>0.18557280383278507</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1207,10 +1207,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1.2672468407363167</v>
+        <v>1.0579863142936061</v>
       </c>
       <c r="C74">
-        <v>0.33678712162152968</v>
+        <v>0.17454147677772697</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1218,10 +1218,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1.2451123577806602</v>
+        <v>1.0615066065403596</v>
       </c>
       <c r="C75">
-        <v>0.33989978121747666</v>
+        <v>0.17141870859039859</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1229,10 +1229,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1.2598609310461408</v>
+        <v>1.0818986555707872</v>
       </c>
       <c r="C76">
-        <v>0.34687324639314626</v>
+        <v>0.17169183601374641</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,10 +1240,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1.2282366194909655</v>
+        <v>1.1011834312002236</v>
       </c>
       <c r="C77">
-        <v>0.35178805625619897</v>
+        <v>0.171890803829575</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,10 +1251,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1.229747260077225</v>
+        <v>1.101316850082664</v>
       </c>
       <c r="C78">
-        <v>0.35286681513845913</v>
+        <v>0.16500320617366399</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1262,10 +1262,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1.2289404237823893</v>
+        <v>1.1021597968966115</v>
       </c>
       <c r="C79">
-        <v>0.33277670648210311</v>
+        <v>0.1667051195248771</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,10 +1273,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1.224664851833601</v>
+        <v>1.0674372557044416</v>
       </c>
       <c r="C80">
-        <v>0.35013063428825464</v>
+        <v>0.17321225575763144</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,10 +1284,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1.228815854002294</v>
+        <v>1.0491697597718883</v>
       </c>
       <c r="C81">
-        <v>0.34996539234442731</v>
+        <v>0.17467257140446041</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1295,10 +1295,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1.2244131923820978</v>
+        <v>1.0333502613829606</v>
       </c>
       <c r="C82">
-        <v>0.35939980782394298</v>
+        <v>0.16492721713613853</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1306,10 +1306,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1.2122621835181229</v>
+        <v>1.0520623721968099</v>
       </c>
       <c r="C83">
-        <v>0.35484296375419133</v>
+        <v>0.16652682679757305</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,10 +1317,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1.2158796356328307</v>
+        <v>1.0400306192049718</v>
       </c>
       <c r="C84">
-        <v>0.35371858472044815</v>
+        <v>0.16774259563197577</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,10 +1328,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1.1976273988084438</v>
+        <v>1.0441074957952639</v>
       </c>
       <c r="C85">
-        <v>0.36118591978429815</v>
+        <v>0.17720051795277725</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,10 +1339,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1.1740533138289859</v>
+        <v>1.0479553955983016</v>
       </c>
       <c r="C86">
-        <v>0.34001724336368755</v>
+        <v>0.17642166942391996</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1.1895058652974413</v>
+        <v>1.04143550147904</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1.1812446628168027</v>
+        <v>1.048258384673048</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,7 +1366,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1.1753214246577885</v>
+        <v>1.0596941262412056</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1.1886895856334336</v>
+        <v>1.0576331232269869</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1382,7 +1382,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1.1676237485291119</v>
+        <v>1.0226447251278605</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,7 +1390,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1.1744667324980493</v>
+        <v>1.012621919396463</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,7 +1398,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1.1462625982908015</v>
+        <v>1.0218968928758283</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,7 +1406,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1.1489157024634351</v>
+        <v>1.0312084649112774</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1.1351437589792308</v>
+        <v>1.0194888432445399</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1.1296418871804439</v>
+        <v>1.0155077730583992</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1.1347077696098882</v>
+        <v>1.007653530630543</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1.1386148295583505</v>
+        <v>1.0132693942502229</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1446,7 +1446,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1.1241554868130528</v>
+        <v>1.0189617156349804</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1454,7 +1454,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1.1284310429405529</v>
+        <v>1.0215828952138388</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1462,7 +1462,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1.1152672034614342</v>
+        <v>1.0235269436246741</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1.1144590472223703</v>
+        <v>1.0163136750394337</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1478,7 +1478,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1.1051246901274545</v>
+        <v>1.0208140909767749</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1.0964711248858139</v>
+        <v>1.0295180210364676</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1.0722899788352493</v>
+        <v>1.0241833877560333</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1502,7 +1502,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1.0799157755306301</v>
+        <v>0.99612843781523719</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1510,7 +1510,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1.0690471512088964</v>
+        <v>1.0254098846182707</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1518,7 +1518,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1.0768374275882302</v>
+        <v>1.0063318884030905</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1526,7 +1526,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1.0777887787520224</v>
+        <v>1.0066940824254056</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1.0837057267893728</v>
+        <v>0.99134560902107383</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1542,7 +1542,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1.0825696094786634</v>
+        <v>1.0063915431999282</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1550,7 +1550,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1.0878098937155598</v>
+        <v>1.0122866124772327</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1558,7 +1558,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1.0820897877567353</v>
+        <v>1.0078611785686737</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1566,7 +1566,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1.0662683516850948</v>
+        <v>1.0323240116539263</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1574,7 +1574,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1.0660761778066692</v>
+        <v>1.0465834433222951</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1.0611791111442139</v>
+        <v>1.0379050965496588</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1.0595476675712896</v>
+        <v>1.0199282306652928</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>1.0566315334336265</v>
+        <v>1.0274790141760848</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1606,7 +1606,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1.0493783956321665</v>
+        <v>1.0198879216001275</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1614,7 +1614,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1.0318134246503106</v>
+        <v>1.014119983079236</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1622,7 +1622,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1.0229651085786571</v>
+        <v>1.0131748731039159</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1630,7 +1630,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>1.022769905722533</v>
+        <v>1.0195877644803921</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>1.0228408386666374</v>
+        <v>1.0359709600342442</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1646,7 +1646,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1.0393792326025586</v>
+        <v>1.0216727619157706</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1654,7 +1654,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1.0207815350912504</v>
+        <v>1.0202641085260855</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1662,7 +1662,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1.0249447130360534</v>
+        <v>1.0315594097076708</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1670,7 +1670,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.98723665698480001</v>
+        <v>1.0163021822906224</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1678,7 +1678,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1.0186309761611845</v>
+        <v>1.0321316978506283</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1686,7 +1686,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1.0045250533232102</v>
+        <v>1.0348472135888462</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1.0038950780064761</v>
+        <v>1.0294217107713417</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1702,7 +1702,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.99512765037651296</v>
+        <v>1.018306144344703</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.98556731525623931</v>
+        <v>1.0268332703858476</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1718,7 +1718,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.97510736892389005</v>
+        <v>1.0353094270235637</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.97885209650487792</v>
+        <v>1.0497390699400271</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.96653918752857915</v>
+        <v>1.0475197131830642</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1742,7 +1742,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.97880579207440288</v>
+        <v>1.0490607571884099</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.95670145804852236</v>
+        <v>1.0481319059820096</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.95669728023158851</v>
+        <v>1.025794840581818</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1766,7 +1766,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.97060158406877606</v>
+        <v>1.0365005357284141</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.9449731694062552</v>
+        <v>1.0303533294121301</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1782,7 +1782,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.93577256340259107</v>
+        <v>1.0471467252868591</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1790,7 +1790,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.92632980755287719</v>
+        <v>1.0209689208101234</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1798,7 +1798,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.94156793023432617</v>
+        <v>1.0252650220303787</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1806,7 +1806,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.93441398763971362</v>
+        <v>1.0214733581484059</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.95829281878305861</v>
+        <v>1.0181423202147146</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1822,7 +1822,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.94514298997510127</v>
+        <v>1.0304914926714923</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1830,7 +1830,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.95328091954897365</v>
+        <v>1.037052406393618</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.95308198408417644</v>
+        <v>1.0110461496856449</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1846,7 +1846,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.93805712828742605</v>
+        <v>1.0132922447005415</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1854,7 +1854,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.93821798319864158</v>
+        <v>1.0149650578006431</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1862,7 +1862,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.91266985595022831</v>
+        <v>1.0063158915628727</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1870,7 +1870,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.90843613443027271</v>
+        <v>1.0176851076298996</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1878,7 +1878,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.90752178895762781</v>
+        <v>1.0278403456384053</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -1886,7 +1886,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.90907468938711689</v>
+        <v>1.0385953657401925</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -1894,7 +1894,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.90341274316716269</v>
+        <v>1.0452545799351531</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.89257290338970219</v>
+        <v>1.0368212342593202</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1910,7 +1910,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.88896024019533693</v>
+        <v>1.0510803329437279</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.87754658062021118</v>
+        <v>1.0277362748908061</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.87420229920782289</v>
+        <v>1.0114469633231713</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.85485231537240824</v>
+        <v>1.0393598961703878</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1942,7 +1942,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.87503780327159775</v>
+        <v>1.0450751060962549</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1950,7 +1950,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.87418798945074061</v>
+        <v>1.0600402668126125</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.86739186106118549</v>
+        <v>1.0451468558292287</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.86890444603598294</v>
+        <v>1.0244810797738231</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.87915354850081084</v>
+        <v>1.028903816970363</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -1982,7 +1982,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.85658250365961319</v>
+        <v>1.0115938939084053</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -1990,7 +1990,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.84986476548150147</v>
+        <v>1.0217827595351208</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1998,7 +1998,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.85993383004454826</v>
+        <v>1.0448900467006417</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2006,7 +2006,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.85525151570849078</v>
+        <v>1.0210729546917932</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2014,7 +2014,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.85390651208904955</v>
+        <v>1.0218820068816101</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2022,7 +2022,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.85429512919183692</v>
+        <v>1.0274169478368955</v>
       </c>
     </row>
   </sheetData>

--- a/mseplots_ph_sbmir.xlsx
+++ b/mseplots_ph_sbmir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darkroom\Joshua\mainlatest\FRCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6D1058-2343-44BE-A97E-AF9ABAB05725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015EA09E-44F9-4541-9C9E-39F505B285B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{DAC57ABC-1604-4A41-BF78-554C38DE4F9A}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{45E7B8A0-CCD7-4302-97AC-2594AEF5B527}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0660DE43-507D-4A03-A86F-92B6ECFD8F21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2CDE02-BCE3-48E9-8C83-D9EE60F34A74}">
   <dimension ref="A2:C171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -415,10 +415,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.2941343574544528</v>
+        <v>3.2312713368655408</v>
       </c>
       <c r="C2">
-        <v>3.0568066742004953</v>
+        <v>2.8536238662902518</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -426,10 +426,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.4498053544681748</v>
+        <v>3.3474755350642424</v>
       </c>
       <c r="C3">
-        <v>2.1372680031927795</v>
+        <v>1.9673996200090369</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -437,10 +437,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.8695649051431555</v>
+        <v>2.8324193800340187</v>
       </c>
       <c r="C4">
-        <v>1.4472223779019482</v>
+        <v>1.4951472617966466</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -448,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.5133568558736634</v>
+        <v>2.5302093301744275</v>
       </c>
       <c r="C5">
-        <v>1.1591523736024787</v>
+        <v>1.2369778386856149</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,10 +459,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.2788696361652305</v>
+        <v>2.3483741301837822</v>
       </c>
       <c r="C6">
-        <v>0.98866726586086739</v>
+        <v>1.0938026257544016</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,10 +470,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.1237662358602019</v>
+        <v>2.2216445433869465</v>
       </c>
       <c r="C7">
-        <v>0.84418557000501404</v>
+        <v>1.0151244690515824</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,10 +481,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.9711586234585445</v>
+        <v>2.1268445934746611</v>
       </c>
       <c r="C8">
-        <v>0.77641230422540086</v>
+        <v>0.95327689622195488</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,10 +492,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.8962536355255122</v>
+        <v>2.0654247793152916</v>
       </c>
       <c r="C9">
-        <v>0.73818313307798034</v>
+        <v>0.92613947684728659</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,10 +503,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.8391542626764887</v>
+        <v>2.0103879543584737</v>
       </c>
       <c r="C10">
-        <v>0.68927575738053593</v>
+        <v>0.90293181631039576</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,10 +514,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.7327642949041262</v>
+        <v>1.9502041603739573</v>
       </c>
       <c r="C11">
-        <v>0.62195746534930796</v>
+        <v>0.93513807846308339</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,10 +525,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.7114442011597653</v>
+        <v>1.9139949175933133</v>
       </c>
       <c r="C12">
-        <v>0.57404794037451989</v>
+        <v>0.95742989350298724</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,10 +536,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.673355757098248</v>
+        <v>1.8907465502858098</v>
       </c>
       <c r="C13">
-        <v>0.54587567387932234</v>
+        <v>0.97865863695166899</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,10 +547,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.6212003897341167</v>
+        <v>1.8766951866403594</v>
       </c>
       <c r="C14">
-        <v>0.51975680014906045</v>
+        <v>0.96404907315792043</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,10 +558,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.576996673421776</v>
+        <v>1.8358539103698146</v>
       </c>
       <c r="C15">
-        <v>0.48324510269164639</v>
+        <v>0.924692453996943</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,10 +569,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.5678269461587928</v>
+        <v>1.8012729295392207</v>
       </c>
       <c r="C16">
-        <v>0.47443938075664038</v>
+        <v>0.91402427327135949</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.5476772409557216</v>
+        <v>1.803649510688609</v>
       </c>
       <c r="C17">
-        <v>0.43000979919776483</v>
+        <v>0.8757595288067761</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,10 +591,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.521063686041735</v>
+        <v>1.7834051546241898</v>
       </c>
       <c r="C18">
-        <v>0.40912524857962729</v>
+        <v>0.83580289685006126</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,10 +602,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.5212520866526966</v>
+        <v>1.7609199516163792</v>
       </c>
       <c r="C19">
-        <v>0.40703732670006937</v>
+        <v>0.79118938027867769</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,10 +613,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.4808266484345569</v>
+        <v>1.7694209094901558</v>
       </c>
       <c r="C20">
-        <v>0.38197383538774227</v>
+        <v>0.75485790784943385</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,10 +624,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.4693358027223795</v>
+        <v>1.7518890424764482</v>
       </c>
       <c r="C21">
-        <v>0.38038276414458577</v>
+        <v>0.75945686603177687</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,10 +635,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.437542218550292</v>
+        <v>1.7609662407493532</v>
       </c>
       <c r="C22">
-        <v>0.35358917428746267</v>
+        <v>0.76943022497922697</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,10 +646,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1.4082571765205416</v>
+        <v>1.7543797015249445</v>
       </c>
       <c r="C23">
-        <v>0.34459030966028054</v>
+        <v>0.77403882390593437</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,10 +657,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.4032084109572782</v>
+        <v>1.7614041313833548</v>
       </c>
       <c r="C24">
-        <v>0.33478750880352864</v>
+        <v>0.78752391523265486</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -668,10 +668,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.3877525765014216</v>
+        <v>1.7392450622294169</v>
       </c>
       <c r="C25">
-        <v>0.35095569529810888</v>
+        <v>0.79476352375903503</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,10 +679,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.3593119828516591</v>
+        <v>1.7525083360650444</v>
       </c>
       <c r="C26">
-        <v>0.35103715077763281</v>
+        <v>0.8267057530179539</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,10 +690,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.3664862558350674</v>
+        <v>1.7587564162508267</v>
       </c>
       <c r="C27">
-        <v>0.36843887952870785</v>
+        <v>0.85273258788789719</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,10 +701,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.337834116057385</v>
+        <v>1.7719079127735153</v>
       </c>
       <c r="C28">
-        <v>0.3528966863398606</v>
+        <v>0.81338927710580089</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,10 +712,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1.3228377020960957</v>
+        <v>1.7635419740689124</v>
       </c>
       <c r="C29">
-        <v>0.34918105678853195</v>
+        <v>0.75998970818787537</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,10 +723,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1.2908306387506854</v>
+        <v>1.7472763653060968</v>
       </c>
       <c r="C30">
-        <v>0.34347185336496239</v>
+        <v>0.69473539132639617</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,10 +734,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.2905253685914448</v>
+        <v>1.7449968477101465</v>
       </c>
       <c r="C31">
-        <v>0.3206158938711472</v>
+        <v>0.66730462055372786</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,10 +745,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1.2915379020283646</v>
+        <v>1.7434907829756816</v>
       </c>
       <c r="C32">
-        <v>0.29747638912847135</v>
+        <v>0.66833199185262016</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.2678287230966212</v>
+        <v>1.747955723275777</v>
       </c>
       <c r="C33">
-        <v>0.29046735328716489</v>
+        <v>0.63799528157484353</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,10 +767,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1.253396280089766</v>
+        <v>1.7555935862294922</v>
       </c>
       <c r="C34">
-        <v>0.27559944506424999</v>
+        <v>0.59010080496633577</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,10 +778,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1.2547859116033464</v>
+        <v>1.7330319863317114</v>
       </c>
       <c r="C35">
-        <v>0.27102657624732623</v>
+        <v>0.55926523694639552</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,10 +789,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1.2319609040131876</v>
+        <v>1.7396199149936467</v>
       </c>
       <c r="C36">
-        <v>0.26670562249966018</v>
+        <v>0.52982452333812025</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,10 +800,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1.202086147822113</v>
+        <v>1.7470789109794069</v>
       </c>
       <c r="C37">
-        <v>0.26584351159113967</v>
+        <v>0.4979835584853734</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,10 +811,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1.18483180968321</v>
+        <v>1.7551576737071823</v>
       </c>
       <c r="C38">
-        <v>0.24400792073906907</v>
+        <v>0.48348247709139586</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,10 +822,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1.1689692258958457</v>
+        <v>1.7746947549451706</v>
       </c>
       <c r="C39">
-        <v>0.24635747675804914</v>
+        <v>0.47514823185125499</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,10 +833,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1.1603980404797878</v>
+        <v>1.7604462480976526</v>
       </c>
       <c r="C40">
-        <v>0.24675356872567739</v>
+        <v>0.47298700936783744</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -844,10 +844,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1.1487941757612328</v>
+        <v>1.7752562660618407</v>
       </c>
       <c r="C41">
-        <v>0.23335383899798159</v>
+        <v>0.44815515865391853</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,10 +855,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1.1527233364167178</v>
+        <v>1.7394433375866507</v>
       </c>
       <c r="C42">
-        <v>0.22084169967715447</v>
+        <v>0.44030133063499605</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,10 +866,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1.1537128538158243</v>
+        <v>1.7290384254243216</v>
       </c>
       <c r="C43">
-        <v>0.22227076376597288</v>
+        <v>0.43952287502305137</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -877,10 +877,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1.1675113450801273</v>
+        <v>1.7196407591028275</v>
       </c>
       <c r="C44">
-        <v>0.22166865564219612</v>
+        <v>0.42254711420489172</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -888,10 +888,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1.1727173257066525</v>
+        <v>1.7161624389053742</v>
       </c>
       <c r="C45">
-        <v>0.22170236357119605</v>
+        <v>0.41080980805656808</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,10 +899,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1.151936264501304</v>
+        <v>1.7194319924241348</v>
       </c>
       <c r="C46">
-        <v>0.22756488003792685</v>
+        <v>0.40328641377296087</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,10 +910,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1.1700719809589939</v>
+        <v>1.7122660238928078</v>
       </c>
       <c r="C47">
-        <v>0.22140333697233025</v>
+        <v>0.37230343922670345</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -921,10 +921,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1.1458825053693471</v>
+        <v>1.6977540089584666</v>
       </c>
       <c r="C48">
-        <v>0.22663971216345671</v>
+        <v>0.36866773581835915</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -932,10 +932,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1.1654191445695041</v>
+        <v>1.701532094484987</v>
       </c>
       <c r="C49">
-        <v>0.23638062668028326</v>
+        <v>0.34987525935461766</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1.1326917184608134</v>
+        <v>1.6831778182583479</v>
       </c>
       <c r="C50">
-        <v>0.24181101830052579</v>
+        <v>0.32239249953377014</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,10 +954,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1.0998925106043294</v>
+        <v>1.6939850243784673</v>
       </c>
       <c r="C51">
-        <v>0.22703627764806888</v>
+        <v>0.32879055886316921</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -965,10 +965,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1.1169027590278895</v>
+        <v>1.6830990862839526</v>
       </c>
       <c r="C52">
-        <v>0.22337966699398684</v>
+        <v>0.32125357863042375</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -976,10 +976,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1.1231361431914253</v>
+        <v>1.6595871525157677</v>
       </c>
       <c r="C53">
-        <v>0.22742722631700002</v>
+        <v>0.33245026012348206</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,10 +987,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1.1247054501579308</v>
+        <v>1.6867333312559232</v>
       </c>
       <c r="C54">
-        <v>0.22935423936769836</v>
+        <v>0.31116245282531624</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,10 +998,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1.1136401857212916</v>
+        <v>1.6782604553129341</v>
       </c>
       <c r="C55">
-        <v>0.22165892613823948</v>
+        <v>0.31974852254547065</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1009,10 +1009,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1.0948604040275067</v>
+        <v>1.6677462368871163</v>
       </c>
       <c r="C56">
-        <v>0.20055131376870697</v>
+        <v>0.33388054868250683</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,10 +1020,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1.0610907691737246</v>
+        <v>1.6683788309639496</v>
       </c>
       <c r="C57">
-        <v>0.20043644322008083</v>
+        <v>0.32498174563345827</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1031,10 +1031,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1.0727264500107923</v>
+        <v>1.6700211115006673</v>
       </c>
       <c r="C58">
-        <v>0.20191480963098044</v>
+        <v>0.32371839003832775</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1042,10 +1042,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1.0548181276722044</v>
+        <v>1.657896385990449</v>
       </c>
       <c r="C59">
-        <v>0.19965711724128832</v>
+        <v>0.29984817982355166</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,10 +1053,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1.0796486162115901</v>
+        <v>1.6454225530390769</v>
       </c>
       <c r="C60">
-        <v>0.20568124861714335</v>
+        <v>0.30472087770848622</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,10 +1064,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1.0717718068114825</v>
+        <v>1.6517281559190582</v>
       </c>
       <c r="C61">
-        <v>0.20702350010559786</v>
+        <v>0.3091748822412701</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,10 +1075,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1.0593371529781941</v>
+        <v>1.6759886333889489</v>
       </c>
       <c r="C62">
-        <v>0.20707921280500827</v>
+        <v>0.31325669674812917</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1086,10 +1086,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1.0585303359676017</v>
+        <v>1.6505463849756068</v>
       </c>
       <c r="C63">
-        <v>0.21853977422979193</v>
+        <v>0.3132684734945626</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1097,10 +1097,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1.0548078283467195</v>
+        <v>1.6612929319451126</v>
       </c>
       <c r="C64">
-        <v>0.21049592685598559</v>
+        <v>0.29938583818537745</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,10 +1108,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1.0600783191780436</v>
+        <v>1.6348598432358299</v>
       </c>
       <c r="C65">
-        <v>0.20890646188018036</v>
+        <v>0.28969829515756323</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1119,10 +1119,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1.0650776193827918</v>
+        <v>1.6134647252614256</v>
       </c>
       <c r="C66">
-        <v>0.20827009113954884</v>
+        <v>0.28465408979534096</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1130,10 +1130,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1.0458634065576016</v>
+        <v>1.6391880749178496</v>
       </c>
       <c r="C67">
-        <v>0.19237758613707182</v>
+        <v>0.28322212941712743</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1141,10 +1141,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1.0496389625311116</v>
+        <v>1.6334599759783808</v>
       </c>
       <c r="C68">
-        <v>0.19921932119953017</v>
+        <v>0.26362082940298681</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1152,10 +1152,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1.0554617275082392</v>
+        <v>1.6325423797588305</v>
       </c>
       <c r="C69">
-        <v>0.20410007815296599</v>
+        <v>0.24585707724314393</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1163,10 +1163,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1.0569472693989368</v>
+        <v>1.61414791541917</v>
       </c>
       <c r="C70">
-        <v>0.20560143438331949</v>
+        <v>0.25218304444884182</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1174,10 +1174,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1.0529283545226948</v>
+        <v>1.6356166070925138</v>
       </c>
       <c r="C71">
-        <v>0.2066111270023383</v>
+        <v>0.24943324447629153</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1185,10 +1185,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1.0498677622021473</v>
+        <v>1.6090920059896041</v>
       </c>
       <c r="C72">
-        <v>0.20574721091113068</v>
+        <v>0.27055191187167749</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,10 +1196,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1.0530807553830932</v>
+        <v>1.6105794871772259</v>
       </c>
       <c r="C73">
-        <v>0.18557280383278507</v>
+        <v>0.25615159103662299</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1207,10 +1207,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1.0579863142936061</v>
+        <v>1.5927640532563689</v>
       </c>
       <c r="C74">
-        <v>0.17454147677772697</v>
+        <v>0.25084554079668442</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1218,10 +1218,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1.0615066065403596</v>
+        <v>1.5775235897177999</v>
       </c>
       <c r="C75">
-        <v>0.17141870859039859</v>
+        <v>0.23409376982127281</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1229,10 +1229,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1.0818986555707872</v>
+        <v>1.554029230740775</v>
       </c>
       <c r="C76">
-        <v>0.17169183601374641</v>
+        <v>0.24198491655936125</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,10 +1240,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1.1011834312002236</v>
+        <v>1.5690957173486957</v>
       </c>
       <c r="C77">
-        <v>0.171890803829575</v>
+        <v>0.23621831949156039</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,10 +1251,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1.101316850082664</v>
+        <v>1.5552604087185133</v>
       </c>
       <c r="C78">
-        <v>0.16500320617366399</v>
+        <v>0.24499816944829006</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1262,10 +1262,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1.1021597968966115</v>
+        <v>1.5690923546192854</v>
       </c>
       <c r="C79">
-        <v>0.1667051195248771</v>
+        <v>0.25350911367872248</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,10 +1273,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1.0674372557044416</v>
+        <v>1.5305815477182569</v>
       </c>
       <c r="C80">
-        <v>0.17321225575763144</v>
+        <v>0.24004937016211916</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,10 +1284,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1.0491697597718883</v>
+        <v>1.5096458834578237</v>
       </c>
       <c r="C81">
-        <v>0.17467257140446041</v>
+        <v>0.22556652612079311</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1295,10 +1295,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1.0333502613829606</v>
+        <v>1.5070502214271642</v>
       </c>
       <c r="C82">
-        <v>0.16492721713613853</v>
+        <v>0.2338477070777624</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1306,10 +1306,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1.0520623721968099</v>
+        <v>1.5113632322200345</v>
       </c>
       <c r="C83">
-        <v>0.16652682679757305</v>
+        <v>0.24270547228454428</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,10 +1317,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1.0400306192049718</v>
+        <v>1.5019123352859756</v>
       </c>
       <c r="C84">
-        <v>0.16774259563197577</v>
+        <v>0.22672339735772873</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,10 +1328,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1.0441074957952639</v>
+        <v>1.5096423841421254</v>
       </c>
       <c r="C85">
-        <v>0.17720051795277725</v>
+        <v>0.23162103245686858</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,10 +1339,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1.0479553955983016</v>
+        <v>1.4915627848212616</v>
       </c>
       <c r="C86">
-        <v>0.17642166942391996</v>
+        <v>0.23625081333674874</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1.04143550147904</v>
+        <v>1.5160400554336833</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1.048258384673048</v>
+        <v>1.5085966889246811</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,7 +1366,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1.0596941262412056</v>
+        <v>1.4924409361139723</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1.0576331232269869</v>
+        <v>1.5041501182384931</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1382,7 +1382,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1.0226447251278605</v>
+        <v>1.4999340439014301</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,7 +1390,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1.012621919396463</v>
+        <v>1.5035443583705317</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,7 +1398,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1.0218968928758283</v>
+        <v>1.5180719242435281</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,7 +1406,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1.0312084649112774</v>
+        <v>1.5022272449149698</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1.0194888432445399</v>
+        <v>1.4794866944590765</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1.0155077730583992</v>
+        <v>1.4761477293327101</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1.007653530630543</v>
+        <v>1.477868432719605</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1.0132693942502229</v>
+        <v>1.4883263940578875</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1446,7 +1446,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1.0189617156349804</v>
+        <v>1.4684948033598975</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1454,7 +1454,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1.0215828952138388</v>
+        <v>1.4608612285295193</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1462,7 +1462,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1.0235269436246741</v>
+        <v>1.4525142370324846</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1.0163136750394337</v>
+        <v>1.4448806750148742</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1478,7 +1478,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1.0208140909767749</v>
+        <v>1.4172518353816508</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1.0295180210364676</v>
+        <v>1.4217589560493793</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1.0241833877560333</v>
+        <v>1.4317237266176683</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1502,7 +1502,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.99612843781523719</v>
+        <v>1.4125299603047219</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1510,7 +1510,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1.0254098846182707</v>
+        <v>1.4017289249800109</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1518,7 +1518,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1.0063318884030905</v>
+        <v>1.3995329964798133</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1526,7 +1526,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1.0066940824254056</v>
+        <v>1.3908137694024623</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.99134560902107383</v>
+        <v>1.3937417652263913</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1542,7 +1542,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1.0063915431999282</v>
+        <v>1.4002751760045169</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1550,7 +1550,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1.0122866124772327</v>
+        <v>1.411382117789054</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1558,7 +1558,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1.0078611785686737</v>
+        <v>1.4162686856353943</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1566,7 +1566,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1.0323240116539263</v>
+        <v>1.3998721194596633</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1574,7 +1574,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1.0465834433222951</v>
+        <v>1.3968626772006911</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1.0379050965496588</v>
+        <v>1.3922526039223648</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1.0199282306652928</v>
+        <v>1.3694462157321794</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>1.0274790141760848</v>
+        <v>1.3512692619961151</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1606,7 +1606,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1.0198879216001275</v>
+        <v>1.3592300329391083</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1614,7 +1614,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1.014119983079236</v>
+        <v>1.337813011015317</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1622,7 +1622,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1.0131748731039159</v>
+        <v>1.3433824313894331</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1630,7 +1630,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>1.0195877644803921</v>
+        <v>1.30889875665019</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>1.0359709600342442</v>
+        <v>1.3234057135590778</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1646,7 +1646,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1.0216727619157706</v>
+        <v>1.298518916297746</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1654,7 +1654,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1.0202641085260855</v>
+        <v>1.2991974197011258</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1662,7 +1662,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1.0315594097076708</v>
+        <v>1.2680013772987266</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1670,7 +1670,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>1.0163021822906224</v>
+        <v>1.2505712839574989</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1678,7 +1678,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1.0321316978506283</v>
+        <v>1.2741666832111387</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1686,7 +1686,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1.0348472135888462</v>
+        <v>1.2797154105295991</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1.0294217107713417</v>
+        <v>1.2632130225404197</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1702,7 +1702,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>1.018306144344703</v>
+        <v>1.2808273219254969</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>1.0268332703858476</v>
+        <v>1.2548490351696597</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1718,7 +1718,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>1.0353094270235637</v>
+        <v>1.2434405021062469</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>1.0497390699400271</v>
+        <v>1.250964421586523</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>1.0475197131830642</v>
+        <v>1.2447907894441856</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1742,7 +1742,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>1.0490607571884099</v>
+        <v>1.2601279465208248</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>1.0481319059820096</v>
+        <v>1.241233926354897</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>1.025794840581818</v>
+        <v>1.2443210789192765</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1766,7 +1766,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1.0365005357284141</v>
+        <v>1.2493971466111251</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>1.0303533294121301</v>
+        <v>1.2140462587127978</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1782,7 +1782,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>1.0471467252868591</v>
+        <v>1.2081182834357049</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1790,7 +1790,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>1.0209689208101234</v>
+        <v>1.1917281531623798</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1798,7 +1798,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>1.0252650220303787</v>
+        <v>1.1905832093677928</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1806,7 +1806,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>1.0214733581484059</v>
+        <v>1.1789401962145174</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>1.0181423202147146</v>
+        <v>1.1981435076384601</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1822,7 +1822,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>1.0304914926714923</v>
+        <v>1.219705172860257</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1830,7 +1830,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>1.037052406393618</v>
+        <v>1.2182570246018865</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>1.0110461496856449</v>
+        <v>1.2102654553558114</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1846,7 +1846,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>1.0132922447005415</v>
+        <v>1.2072088524325961</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1854,7 +1854,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>1.0149650578006431</v>
+        <v>1.2312776772958152</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1862,7 +1862,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>1.0063158915628727</v>
+        <v>1.2197495288313691</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1870,7 +1870,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>1.0176851076298996</v>
+        <v>1.2102105782916943</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1878,7 +1878,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>1.0278403456384053</v>
+        <v>1.2215678011791724</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -1886,7 +1886,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>1.0385953657401925</v>
+        <v>1.2171501991303317</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -1894,7 +1894,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>1.0452545799351531</v>
+        <v>1.2169269728494034</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>1.0368212342593202</v>
+        <v>1.2200746097274122</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1910,7 +1910,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>1.0510803329437279</v>
+        <v>1.2208555998423918</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>1.0277362748908061</v>
+        <v>1.2037081069524698</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>1.0114469633231713</v>
+        <v>1.2190640785518676</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>1.0393598961703878</v>
+        <v>1.2153895066053879</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1942,7 +1942,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>1.0450751060962549</v>
+        <v>1.2182974875473134</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1950,7 +1950,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>1.0600402668126125</v>
+        <v>1.1999953999371387</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>1.0451468558292287</v>
+        <v>1.1994725110310165</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>1.0244810797738231</v>
+        <v>1.2208186958637759</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>1.028903816970363</v>
+        <v>1.2239104975694699</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -1982,7 +1982,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>1.0115938939084053</v>
+        <v>1.2248015695875312</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -1990,7 +1990,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>1.0217827595351208</v>
+        <v>1.2126144271121602</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1998,7 +1998,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>1.0448900467006417</v>
+        <v>1.2130970805732049</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2006,7 +2006,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>1.0210729546917932</v>
+        <v>1.2223124371118979</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2014,7 +2014,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>1.0218820068816101</v>
+        <v>1.2057346759799925</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2022,7 +2022,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>1.0274169478368955</v>
+        <v>1.2125983771456024</v>
       </c>
     </row>
   </sheetData>

--- a/mseplots_ph_sbmir.xlsx
+++ b/mseplots_ph_sbmir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darkroom\Joshua\mainlatest\FRCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015EA09E-44F9-4541-9C9E-39F505B285B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1662E4-6CF5-48F5-B0DB-4B9AF39057B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{45E7B8A0-CCD7-4302-97AC-2594AEF5B527}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{8DFC6A33-2007-4477-A5E5-177FC8A4D0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,11 +401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2CDE02-BCE3-48E9-8C83-D9EE60F34A74}">
-  <dimension ref="A2:C171"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D026794C-D8C7-40A7-9D22-179D9A3F862B}">
+  <dimension ref="A2:C501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C86"/>
+      <selection activeCell="C2" sqref="C2:C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,10 +415,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.2312713368655408</v>
+        <v>3.1700117999557027</v>
       </c>
       <c r="C2">
-        <v>2.8536238662902518</v>
+        <v>2.7854357191092176</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -426,10 +426,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.3474755350642424</v>
+        <v>3.2437870115314746</v>
       </c>
       <c r="C3">
-        <v>1.9673996200090369</v>
+        <v>1.9899168505418019</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -437,10 +437,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.8324193800340187</v>
+        <v>2.7251686068475185</v>
       </c>
       <c r="C4">
-        <v>1.4951472617966466</v>
+        <v>1.4813864270725858</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -448,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.5302093301744275</v>
+        <v>2.4422328435789113</v>
       </c>
       <c r="C5">
-        <v>1.2369778386856149</v>
+        <v>1.2248124586181566</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,10 +459,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.3483741301837822</v>
+        <v>2.2528623442528479</v>
       </c>
       <c r="C6">
-        <v>1.0938026257544016</v>
+        <v>1.0960474870620167</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,10 +470,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.2216445433869465</v>
+        <v>2.1288430118609916</v>
       </c>
       <c r="C7">
-        <v>1.0151244690515824</v>
+        <v>0.99240335750806774</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,10 +481,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.1268445934746611</v>
+        <v>1.9983570087094671</v>
       </c>
       <c r="C8">
-        <v>0.95327689622195488</v>
+        <v>0.92420449820514772</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,10 +492,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.0654247793152916</v>
+        <v>1.949486750826698</v>
       </c>
       <c r="C9">
-        <v>0.92613947684728659</v>
+        <v>0.89686212945372557</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,10 +503,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.0103879543584737</v>
+        <v>1.8798318367541555</v>
       </c>
       <c r="C10">
-        <v>0.90293181631039576</v>
+        <v>0.84648188858386963</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,10 +514,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.9502041603739573</v>
+        <v>1.8373835182789333</v>
       </c>
       <c r="C11">
-        <v>0.93513807846308339</v>
+        <v>0.79028140856073392</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,10 +525,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.9139949175933133</v>
+        <v>1.8078675049159632</v>
       </c>
       <c r="C12">
-        <v>0.95742989350298724</v>
+        <v>0.74303516983555185</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,10 +536,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.8907465502858098</v>
+        <v>1.7771391725133767</v>
       </c>
       <c r="C13">
-        <v>0.97865863695166899</v>
+        <v>0.70571926354553394</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,10 +547,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.8766951866403594</v>
+        <v>1.724230364697843</v>
       </c>
       <c r="C14">
-        <v>0.96404907315792043</v>
+        <v>0.68344223953987604</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,10 +558,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.8358539103698146</v>
+        <v>1.7271254989469949</v>
       </c>
       <c r="C15">
-        <v>0.924692453996943</v>
+        <v>0.66874028069706526</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,10 +569,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.8012729295392207</v>
+        <v>1.6801848123771452</v>
       </c>
       <c r="C16">
-        <v>0.91402427327135949</v>
+        <v>0.65752059359555093</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.803649510688609</v>
+        <v>1.6783549869176151</v>
       </c>
       <c r="C17">
-        <v>0.8757595288067761</v>
+        <v>0.64677274564049669</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,10 +591,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.7834051546241898</v>
+        <v>1.6561204212382188</v>
       </c>
       <c r="C18">
-        <v>0.83580289685006126</v>
+        <v>0.62873182132155048</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,10 +602,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.7609199516163792</v>
+        <v>1.628320425448849</v>
       </c>
       <c r="C19">
-        <v>0.79118938027867769</v>
+        <v>0.62313004401439909</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,10 +613,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.7694209094901558</v>
+        <v>1.6269259020923132</v>
       </c>
       <c r="C20">
-        <v>0.75485790784943385</v>
+        <v>0.60166967549416983</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,10 +624,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.7518890424764482</v>
+        <v>1.6051474640705841</v>
       </c>
       <c r="C21">
-        <v>0.75945686603177687</v>
+        <v>0.58861209612378251</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,10 +635,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.7609662407493532</v>
+        <v>1.6085450519013178</v>
       </c>
       <c r="C22">
-        <v>0.76943022497922697</v>
+        <v>0.56756954900171852</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,10 +646,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1.7543797015249445</v>
+        <v>1.5830457149366566</v>
       </c>
       <c r="C23">
-        <v>0.77403882390593437</v>
+        <v>0.57522356736618729</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,10 +657,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.7614041313833548</v>
+        <v>1.5840499212866854</v>
       </c>
       <c r="C24">
-        <v>0.78752391523265486</v>
+        <v>0.56732714153373087</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -668,10 +668,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.7392450622294169</v>
+        <v>1.5727296863841973</v>
       </c>
       <c r="C25">
-        <v>0.79476352375903503</v>
+        <v>0.55485975843377366</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,10 +679,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.7525083360650444</v>
+        <v>1.5485144564439504</v>
       </c>
       <c r="C26">
-        <v>0.8267057530179539</v>
+        <v>0.54070321819047207</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,10 +690,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.7587564162508267</v>
+        <v>1.5235209270281194</v>
       </c>
       <c r="C27">
-        <v>0.85273258788789719</v>
+        <v>0.54522432399428866</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,10 +701,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.7719079127735153</v>
+        <v>1.5409164457284539</v>
       </c>
       <c r="C28">
-        <v>0.81338927710580089</v>
+        <v>0.53796414839243711</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,10 +712,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1.7635419740689124</v>
+        <v>1.5381186456447837</v>
       </c>
       <c r="C29">
-        <v>0.75998970818787537</v>
+        <v>0.53387410369356514</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,10 +723,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1.7472763653060968</v>
+        <v>1.5396008622859298</v>
       </c>
       <c r="C30">
-        <v>0.69473539132639617</v>
+        <v>0.54817204228243888</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,10 +734,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.7449968477101465</v>
+        <v>1.5271217680480884</v>
       </c>
       <c r="C31">
-        <v>0.66730462055372786</v>
+        <v>0.53204910704201791</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,10 +745,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1.7434907829756816</v>
+        <v>1.5260044345560271</v>
       </c>
       <c r="C32">
-        <v>0.66833199185262016</v>
+        <v>0.52054248861057406</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.747955723275777</v>
+        <v>1.5254388181207752</v>
       </c>
       <c r="C33">
-        <v>0.63799528157484353</v>
+        <v>0.5239396094304315</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,10 +767,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1.7555935862294922</v>
+        <v>1.5131193927416882</v>
       </c>
       <c r="C34">
-        <v>0.59010080496633577</v>
+        <v>0.52177807188471104</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,10 +778,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1.7330319863317114</v>
+        <v>1.4975986083028472</v>
       </c>
       <c r="C35">
-        <v>0.55926523694639552</v>
+        <v>0.49152331400120358</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,10 +789,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1.7396199149936467</v>
+        <v>1.4794035676047681</v>
       </c>
       <c r="C36">
-        <v>0.52982452333812025</v>
+        <v>0.46767868631052756</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,10 +800,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1.7470789109794069</v>
+        <v>1.486251163017527</v>
       </c>
       <c r="C37">
-        <v>0.4979835584853734</v>
+        <v>0.46281727093151176</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,10 +811,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1.7551576737071823</v>
+        <v>1.4628531887161313</v>
       </c>
       <c r="C38">
-        <v>0.48348247709139586</v>
+        <v>0.46480616760562699</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,10 +822,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1.7746947549451706</v>
+        <v>1.4691598604545024</v>
       </c>
       <c r="C39">
-        <v>0.47514823185125499</v>
+        <v>0.47440887931223896</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,10 +833,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1.7604462480976526</v>
+        <v>1.4738590200318049</v>
       </c>
       <c r="C40">
-        <v>0.47298700936783744</v>
+        <v>0.48985295935770828</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -844,10 +844,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1.7752562660618407</v>
+        <v>1.4699743845807332</v>
       </c>
       <c r="C41">
-        <v>0.44815515865391853</v>
+        <v>0.49628730755886397</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,10 +855,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1.7394433375866507</v>
+        <v>1.4693731635840244</v>
       </c>
       <c r="C42">
-        <v>0.44030133063499605</v>
+        <v>0.49949647962678839</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,10 +866,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1.7290384254243216</v>
+        <v>1.4697493167120126</v>
       </c>
       <c r="C43">
-        <v>0.43952287502305137</v>
+        <v>0.50212309925939957</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -877,10 +877,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1.7196407591028275</v>
+        <v>1.4598984605904817</v>
       </c>
       <c r="C44">
-        <v>0.42254711420489172</v>
+        <v>0.50138853696103181</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -888,10 +888,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1.7161624389053742</v>
+        <v>1.4502008676924207</v>
       </c>
       <c r="C45">
-        <v>0.41080980805656808</v>
+        <v>0.50833732439800416</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,10 +899,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1.7194319924241348</v>
+        <v>1.4609741014098572</v>
       </c>
       <c r="C46">
-        <v>0.40328641377296087</v>
+        <v>0.52183531500283264</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,10 +910,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1.7122660238928078</v>
+        <v>1.4634076933283637</v>
       </c>
       <c r="C47">
-        <v>0.37230343922670345</v>
+        <v>0.50693766993038913</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -921,10 +921,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1.6977540089584666</v>
+        <v>1.4574222100849312</v>
       </c>
       <c r="C48">
-        <v>0.36866773581835915</v>
+        <v>0.49538181777237278</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -932,10 +932,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1.701532094484987</v>
+        <v>1.4493356286402896</v>
       </c>
       <c r="C49">
-        <v>0.34987525935461766</v>
+        <v>0.47480006746659997</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1.6831778182583479</v>
+        <v>1.4608355841589522</v>
       </c>
       <c r="C50">
-        <v>0.32239249953377014</v>
+        <v>0.47108463178240867</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,10 +954,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1.6939850243784673</v>
+        <v>1.4577325345221737</v>
       </c>
       <c r="C51">
-        <v>0.32879055886316921</v>
+        <v>0.47411770426329797</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -965,10 +965,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1.6830990862839526</v>
+        <v>1.447305959178296</v>
       </c>
       <c r="C52">
-        <v>0.32125357863042375</v>
+        <v>0.47472233828565874</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -976,10 +976,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1.6595871525157677</v>
+        <v>1.4366253780073917</v>
       </c>
       <c r="C53">
-        <v>0.33245026012348206</v>
+        <v>0.49193034162351529</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,10 +987,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1.6867333312559232</v>
+        <v>1.4445013627844698</v>
       </c>
       <c r="C54">
-        <v>0.31116245282531624</v>
+        <v>0.4983453608751926</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,10 +998,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1.6782604553129341</v>
+        <v>1.4327343959192607</v>
       </c>
       <c r="C55">
-        <v>0.31974852254547065</v>
+        <v>0.4830392192643661</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1009,10 +1009,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1.6677462368871163</v>
+        <v>1.449294793886849</v>
       </c>
       <c r="C56">
-        <v>0.33388054868250683</v>
+        <v>0.474347765147905</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,10 +1020,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1.6683788309639496</v>
+        <v>1.4341687481242755</v>
       </c>
       <c r="C57">
-        <v>0.32498174563345827</v>
+        <v>0.47677746616883243</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1031,10 +1031,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1.6700211115006673</v>
+        <v>1.430117997037712</v>
       </c>
       <c r="C58">
-        <v>0.32371839003832775</v>
+        <v>0.48388618769027014</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1042,10 +1042,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1.657896385990449</v>
+        <v>1.4352212201498684</v>
       </c>
       <c r="C59">
-        <v>0.29984817982355166</v>
+        <v>0.48081668795706933</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,10 +1053,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1.6454225530390769</v>
+        <v>1.4297470879552423</v>
       </c>
       <c r="C60">
-        <v>0.30472087770848622</v>
+        <v>0.48669659736021825</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,10 +1064,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1.6517281559190582</v>
+        <v>1.4316783029953541</v>
       </c>
       <c r="C61">
-        <v>0.3091748822412701</v>
+        <v>0.49673452412788793</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,10 +1075,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1.6759886333889489</v>
+        <v>1.4405240157301877</v>
       </c>
       <c r="C62">
-        <v>0.31325669674812917</v>
+        <v>0.50074941007114415</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1086,10 +1086,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1.6505463849756068</v>
+        <v>1.4243090218794925</v>
       </c>
       <c r="C63">
-        <v>0.3132684734945626</v>
+        <v>0.49093976777533022</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1097,10 +1097,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1.6612929319451126</v>
+        <v>1.4071516699892834</v>
       </c>
       <c r="C64">
-        <v>0.29938583818537745</v>
+        <v>0.50067570829638197</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,10 +1108,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1.6348598432358299</v>
+        <v>1.4404492558940598</v>
       </c>
       <c r="C65">
-        <v>0.28969829515756323</v>
+        <v>0.49932031929174753</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1119,10 +1119,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1.6134647252614256</v>
+        <v>1.4155425000191371</v>
       </c>
       <c r="C66">
-        <v>0.28465408979534096</v>
+        <v>0.51496109495662679</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1130,10 +1130,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1.6391880749178496</v>
+        <v>1.4241712640075963</v>
       </c>
       <c r="C67">
-        <v>0.28322212941712743</v>
+        <v>0.52451819050660686</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1141,10 +1141,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1.6334599759783808</v>
+        <v>1.4229931184741931</v>
       </c>
       <c r="C68">
-        <v>0.26362082940298681</v>
+        <v>0.52350158704479843</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1152,10 +1152,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1.6325423797588305</v>
+        <v>1.4128367816114575</v>
       </c>
       <c r="C69">
-        <v>0.24585707724314393</v>
+        <v>0.5172499466526691</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1163,10 +1163,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1.61414791541917</v>
+        <v>1.4068921841674802</v>
       </c>
       <c r="C70">
-        <v>0.25218304444884182</v>
+        <v>0.51407770937152975</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1174,10 +1174,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1.6356166070925138</v>
+        <v>1.4204819324055746</v>
       </c>
       <c r="C71">
-        <v>0.24943324447629153</v>
+        <v>0.52782675345189967</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1185,10 +1185,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1.6090920059896041</v>
+        <v>1.4135042080000193</v>
       </c>
       <c r="C72">
-        <v>0.27055191187167749</v>
+        <v>0.52232287908152752</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,10 +1196,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1.6105794871772259</v>
+        <v>1.392729321649532</v>
       </c>
       <c r="C73">
-        <v>0.25615159103662299</v>
+        <v>0.53595238205296636</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1207,10 +1207,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1.5927640532563689</v>
+        <v>1.3943599025706839</v>
       </c>
       <c r="C74">
-        <v>0.25084554079668442</v>
+        <v>0.54173030641298536</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1218,10 +1218,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1.5775235897177999</v>
+        <v>1.4073080215174358</v>
       </c>
       <c r="C75">
-        <v>0.23409376982127281</v>
+        <v>0.55266916108847486</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1229,10 +1229,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1.554029230740775</v>
+        <v>1.3870639170181993</v>
       </c>
       <c r="C76">
-        <v>0.24198491655936125</v>
+        <v>0.57449761741039862</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,10 +1240,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1.5690957173486957</v>
+        <v>1.3966585720508113</v>
       </c>
       <c r="C77">
-        <v>0.23621831949156039</v>
+        <v>0.58004051303785586</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,10 +1251,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1.5552604087185133</v>
+        <v>1.4043387019044755</v>
       </c>
       <c r="C78">
-        <v>0.24499816944829006</v>
+        <v>0.58826368720493227</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1262,10 +1262,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1.5690923546192854</v>
+        <v>1.4094972312012106</v>
       </c>
       <c r="C79">
-        <v>0.25350911367872248</v>
+        <v>0.58377553220349665</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,10 +1273,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1.5305815477182569</v>
+        <v>1.4173231742655157</v>
       </c>
       <c r="C80">
-        <v>0.24004937016211916</v>
+        <v>0.57837814792620812</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,10 +1284,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1.5096458834578237</v>
+        <v>1.4274522082930681</v>
       </c>
       <c r="C81">
-        <v>0.22556652612079311</v>
+        <v>0.57245830911481543</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1295,10 +1295,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1.5070502214271642</v>
+        <v>1.4042890262704559</v>
       </c>
       <c r="C82">
-        <v>0.2338477070777624</v>
+        <v>0.55616453147306055</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1306,10 +1306,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1.5113632322200345</v>
+        <v>1.4186296717682745</v>
       </c>
       <c r="C83">
-        <v>0.24270547228454428</v>
+        <v>0.53055995978312875</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,10 +1317,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1.5019123352859756</v>
+        <v>1.4050762070844955</v>
       </c>
       <c r="C84">
-        <v>0.22672339735772873</v>
+        <v>0.50238907483376072</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,10 +1328,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1.5096423841421254</v>
+        <v>1.4077269086383186</v>
       </c>
       <c r="C85">
-        <v>0.23162103245686858</v>
+        <v>0.50001266466425864</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,10 +1339,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1.4915627848212616</v>
+        <v>1.3985628166573747</v>
       </c>
       <c r="C86">
-        <v>0.23625081333674874</v>
+        <v>0.49319128929472084</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,10 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1.5160400554336833</v>
+        <v>1.3906789013810215</v>
+      </c>
+      <c r="C87">
+        <v>0.49037171753195108</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1358,7 +1361,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1.5085966889246811</v>
+        <v>1.3901576879272901</v>
+      </c>
+      <c r="C88">
+        <v>0.49634603885381057</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,7 +1372,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1.4924409361139723</v>
+        <v>1.3906346844414974</v>
+      </c>
+      <c r="C89">
+        <v>0.50976314948553514</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1374,7 +1383,10 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1.5041501182384931</v>
+        <v>1.3830940056866428</v>
+      </c>
+      <c r="C90">
+        <v>0.5201653684236589</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1382,7 +1394,10 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1.4999340439014301</v>
+        <v>1.392647247661539</v>
+      </c>
+      <c r="C91">
+        <v>0.49265220643801655</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,7 +1405,10 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1.5035443583705317</v>
+        <v>1.3897552518226459</v>
+      </c>
+      <c r="C92">
+        <v>0.48026450947523541</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,7 +1416,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1.5180719242435281</v>
+        <v>1.3866572748524066</v>
+      </c>
+      <c r="C93">
+        <v>0.47492904794868224</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,7 +1427,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1.5022272449149698</v>
+        <v>1.401811726172504</v>
+      </c>
+      <c r="C94">
+        <v>0.45738585316107444</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1414,7 +1438,10 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1.4794866944590765</v>
+        <v>1.4075742737161261</v>
+      </c>
+      <c r="C95">
+        <v>0.46185425550014858</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,607 +1449,3715 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1.4761477293327101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.4016373973881648</v>
+      </c>
+      <c r="C96">
+        <v>0.45326156234138126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1.477868432719605</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3921673853778833</v>
+      </c>
+      <c r="C97">
+        <v>0.45362611622196297</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1.4883263940578875</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3943629357606551</v>
+      </c>
+      <c r="C98">
+        <v>0.44874970475957371</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1.4684948033598975</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3859497751636658</v>
+      </c>
+      <c r="C99">
+        <v>0.43592394232273735</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1.4608612285295193</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3792873517835853</v>
+      </c>
+      <c r="C100">
+        <v>0.44222644669538946</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1.4525142370324846</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3887733614004758</v>
+      </c>
+      <c r="C101">
+        <v>0.42262916602693035</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1.4448806750148742</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3917240618128768</v>
+      </c>
+      <c r="C102">
+        <v>0.41964135915655165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1.4172518353816508</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3914470235943843</v>
+      </c>
+      <c r="C103">
+        <v>0.42293462810884108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1.4217589560493793</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3972942085777418</v>
+      </c>
+      <c r="C104">
+        <v>0.4187968879077657</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1.4317237266176683</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3907196239781152</v>
+      </c>
+      <c r="C105">
+        <v>0.41193213846931331</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1.4125299603047219</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3829735747844356</v>
+      </c>
+      <c r="C106">
+        <v>0.41159071104273259</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1.4017289249800109</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.366854835795587</v>
+      </c>
+      <c r="C107">
+        <v>0.40474066406776088</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1.3995329964798133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.368703170431965</v>
+      </c>
+      <c r="C108">
+        <v>0.38050053886889756</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1.3908137694024623</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3757043556248052</v>
+      </c>
+      <c r="C109">
+        <v>0.39355484242320593</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1.3937417652263913</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3735463616256363</v>
+      </c>
+      <c r="C110">
+        <v>0.39195160448564936</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1.4002751760045169</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3734465735512862</v>
+      </c>
+      <c r="C111">
+        <v>0.37784416398073634</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1.411382117789054</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3639330464872597</v>
+      </c>
+      <c r="C112">
+        <v>0.37046606263932497</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1.4162686856353943</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3532367356972501</v>
+      </c>
+      <c r="C113">
+        <v>0.36354488228649606</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1.3998721194596633</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3532297319853728</v>
+      </c>
+      <c r="C114">
+        <v>0.37617119929251203</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1.3968626772006911</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3790782368164729</v>
+      </c>
+      <c r="C115">
+        <v>0.3770943102546086</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1.3922526039223648</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3840831454656484</v>
+      </c>
+      <c r="C116">
+        <v>0.4033785465774356</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1.3694462157321794</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3767593451121471</v>
+      </c>
+      <c r="C117">
+        <v>0.39410057086565259</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118">
-        <v>1.3512692619961151</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3668613401124901</v>
+      </c>
+      <c r="C118">
+        <v>0.40865287046853349</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1.3592300329391083</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3533757546816911</v>
+      </c>
+      <c r="C119">
+        <v>0.40928388389686232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1.337813011015317</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3504450933789791</v>
+      </c>
+      <c r="C120">
+        <v>0.41577907047430451</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1.3433824313894331</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3516367528400253</v>
+      </c>
+      <c r="C121">
+        <v>0.41279842116696047</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>1.30889875665019</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.356397242578496</v>
+      </c>
+      <c r="C122">
+        <v>0.41715883572810336</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>1.3234057135590778</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3542913600290101</v>
+      </c>
+      <c r="C123">
+        <v>0.41207729691151868</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1.298518916297746</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.371399471831021</v>
+      </c>
+      <c r="C124">
+        <v>0.4248138649962982</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1.2991974197011258</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.368325636417357</v>
+      </c>
+      <c r="C125">
+        <v>0.41300346379881347</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1.2680013772987266</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3606436010252299</v>
+      </c>
+      <c r="C126">
+        <v>0.40872050552331002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127">
-        <v>1.2505712839574989</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3762072093816664</v>
+      </c>
+      <c r="C127">
+        <v>0.42426980140876241</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1.2741666832111387</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3697006535257079</v>
+      </c>
+      <c r="C128">
+        <v>0.41329059740465041</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1.2797154105295991</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3802270420989218</v>
+      </c>
+      <c r="C129">
+        <v>0.41606352701296034</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1.2632130225404197</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3651749704627754</v>
+      </c>
+      <c r="C130">
+        <v>0.43152357178049355</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131">
-        <v>1.2808273219254969</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3631957930277172</v>
+      </c>
+      <c r="C131">
+        <v>0.40280828272315666</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132">
-        <v>1.2548490351696597</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3547632670058203</v>
+      </c>
+      <c r="C132">
+        <v>0.39698765810071313</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133">
-        <v>1.2434405021062469</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3614492138358076</v>
+      </c>
+      <c r="C133">
+        <v>0.3630191591911972</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134">
-        <v>1.250964421586523</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.353083287302232</v>
+      </c>
+      <c r="C134">
+        <v>0.38379075793936157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135">
-        <v>1.2447907894441856</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.351882710713572</v>
+      </c>
+      <c r="C135">
+        <v>0.37202848650373732</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136">
-        <v>1.2601279465208248</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3693420841313526</v>
+      </c>
+      <c r="C136">
+        <v>0.37193327087863975</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137">
-        <v>1.241233926354897</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3656719282478267</v>
+      </c>
+      <c r="C137">
+        <v>0.36503040387383756</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138">
-        <v>1.2443210789192765</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3592527099242784</v>
+      </c>
+      <c r="C138">
+        <v>0.34881496702859993</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1.2493971466111251</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3757617030334912</v>
+      </c>
+      <c r="C139">
+        <v>0.35021922368733599</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140">
-        <v>1.2140462587127978</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3719625591993101</v>
+      </c>
+      <c r="C140">
+        <v>0.34361120717081639</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141">
-        <v>1.2081182834357049</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3948851206151311</v>
+      </c>
+      <c r="C141">
+        <v>0.34549174038990005</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142">
-        <v>1.1917281531623798</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3947589344780063</v>
+      </c>
+      <c r="C142">
+        <v>0.33701065422363813</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143">
-        <v>1.1905832093677928</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3949265361841874</v>
+      </c>
+      <c r="C143">
+        <v>0.33875286988896541</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144">
-        <v>1.1789401962145174</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3964006829691984</v>
+      </c>
+      <c r="C144">
+        <v>0.33702375977682736</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>1.1981435076384601</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.374178211856055</v>
+      </c>
+      <c r="C145">
+        <v>0.33304739081000256</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>1.219705172860257</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3810521682246759</v>
+      </c>
+      <c r="C146">
+        <v>0.33760577612236603</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>1.2182570246018865</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3604232327332511</v>
+      </c>
+      <c r="C147">
+        <v>0.32050473863744594</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>1.2102654553558114</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3565874836070222</v>
+      </c>
+      <c r="C148">
+        <v>0.31459641086650891</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>1.2072088524325961</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3495444026435948</v>
+      </c>
+      <c r="C149">
+        <v>0.31728792364363462</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>1.2312776772958152</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3740852831554298</v>
+      </c>
+      <c r="C150">
+        <v>0.32889876775111432</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151">
-        <v>1.2197495288313691</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.354853430750464</v>
+      </c>
+      <c r="C151">
+        <v>0.32119843441108159</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152">
-        <v>1.2102105782916943</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3516885413156681</v>
+      </c>
+      <c r="C152">
+        <v>0.33768413737168751</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153">
-        <v>1.2215678011791724</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3559337426282332</v>
+      </c>
+      <c r="C153">
+        <v>0.30905972307299712</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154">
-        <v>1.2171501991303317</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3741357681206148</v>
+      </c>
+      <c r="C154">
+        <v>0.29186700883215905</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155">
-        <v>1.2169269728494034</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3747345003095557</v>
+      </c>
+      <c r="C155">
+        <v>0.28900514570973312</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156">
-        <v>1.2200746097274122</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3780963959709629</v>
+      </c>
+      <c r="C156">
+        <v>0.28104500317342057</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157">
-        <v>1.2208555998423918</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3708748681984133</v>
+      </c>
+      <c r="C157">
+        <v>0.27765721766627921</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158">
-        <v>1.2037081069524698</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3830960640731191</v>
+      </c>
+      <c r="C158">
+        <v>0.27241576795524686</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159">
-        <v>1.2190640785518676</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3905173160485063</v>
+      </c>
+      <c r="C159">
+        <v>0.26697150947362258</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160">
-        <v>1.2153895066053879</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3810869403256232</v>
+      </c>
+      <c r="C160">
+        <v>0.26278285879460855</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161">
-        <v>1.2182974875473134</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.389182228019803</v>
+      </c>
+      <c r="C161">
+        <v>0.25022839694934035</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162">
-        <v>1.1999953999371387</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3700643723122528</v>
+      </c>
+      <c r="C162">
+        <v>0.26136874702904422</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163">
-        <v>1.1994725110310165</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3738113033186921</v>
+      </c>
+      <c r="C163">
+        <v>0.265174852522988</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164">
-        <v>1.2208186958637759</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.373366829576552</v>
+      </c>
+      <c r="C164">
+        <v>0.26671473569889265</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165">
-        <v>1.2239104975694699</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3584893979704851</v>
+      </c>
+      <c r="C165">
+        <v>0.27096933200091355</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166">
-        <v>1.2248015695875312</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3619770976551724</v>
+      </c>
+      <c r="C166">
+        <v>0.27021216326995418</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167">
-        <v>1.2126144271121602</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.35471385477105</v>
+      </c>
+      <c r="C167">
+        <v>0.2658897487700001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168">
-        <v>1.2130970805732049</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3527836880556143</v>
+      </c>
+      <c r="C168">
+        <v>0.26676261333050894</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169">
-        <v>1.2223124371118979</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3526867429167724</v>
+      </c>
+      <c r="C169">
+        <v>0.26391724757780549</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170">
-        <v>1.2057346759799925</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3435827683128481</v>
+      </c>
+      <c r="C170">
+        <v>0.25925639693257424</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171">
-        <v>1.2125983771456024</v>
+        <v>1.3610197560432595</v>
+      </c>
+      <c r="C171">
+        <v>0.27769106604086052</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>1.3734108986911995</v>
+      </c>
+      <c r="C172">
+        <v>0.26866596137114379</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>1.3797874651058593</v>
+      </c>
+      <c r="C173">
+        <v>0.27518803031820938</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>1.3754645550437044</v>
+      </c>
+      <c r="C174">
+        <v>0.27261023577044408</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>1.3765626524199865</v>
+      </c>
+      <c r="C175">
+        <v>0.27390619480493456</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>1.3644802076937481</v>
+      </c>
+      <c r="C176">
+        <v>0.27304277543908578</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>1.3478830228728105</v>
+      </c>
+      <c r="C177">
+        <v>0.27915733153154959</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>1.3781004298238446</v>
+      </c>
+      <c r="C178">
+        <v>0.27014941593324371</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>1.388980495860304</v>
+      </c>
+      <c r="C179">
+        <v>0.25304227702279003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>1.3738321899251136</v>
+      </c>
+      <c r="C180">
+        <v>0.23972126345908798</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>1.3707532808004748</v>
+      </c>
+      <c r="C181">
+        <v>0.245756360801274</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>1.3647539557855657</v>
+      </c>
+      <c r="C182">
+        <v>0.23405068908033605</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>1.3507277628400702</v>
+      </c>
+      <c r="C183">
+        <v>0.24734418670527006</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>1.3603458117496285</v>
+      </c>
+      <c r="C184">
+        <v>0.24980353744175915</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>1.3817117130513481</v>
+      </c>
+      <c r="C185">
+        <v>0.23891722007458621</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>1.3724523427580941</v>
+      </c>
+      <c r="C186">
+        <v>0.24242337542690631</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>1.3627089027125654</v>
+      </c>
+      <c r="C187">
+        <v>0.23211709566467945</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>1.3626368375642806</v>
+      </c>
+      <c r="C188">
+        <v>0.24218008576239738</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>1.3508266900109385</v>
+      </c>
+      <c r="C189">
+        <v>0.24885387493764832</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>1.3639014886179688</v>
+      </c>
+      <c r="C190">
+        <v>0.24687376215635409</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>1.360200217195314</v>
+      </c>
+      <c r="C191">
+        <v>0.25267147791785755</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>1.3615845345939397</v>
+      </c>
+      <c r="C192">
+        <v>0.2542242297791667</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>1.3543313058374076</v>
+      </c>
+      <c r="C193">
+        <v>0.26040142770639596</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>1.3486964523380505</v>
+      </c>
+      <c r="C194">
+        <v>0.25641158949605858</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>1.3519296264483052</v>
+      </c>
+      <c r="C195">
+        <v>0.25328390212005625</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>1.3305333248801845</v>
+      </c>
+      <c r="C196">
+        <v>0.2419829219851298</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>1.342011652707908</v>
+      </c>
+      <c r="C197">
+        <v>0.23467110147723205</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>1.3514550159794749</v>
+      </c>
+      <c r="C198">
+        <v>0.23272695279983732</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>1.3409890761614431</v>
+      </c>
+      <c r="C199">
+        <v>0.22269566462446014</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>1.3442869789935523</v>
+      </c>
+      <c r="C200">
+        <v>0.22522163369263828</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>1.3532923292159924</v>
+      </c>
+      <c r="C201">
+        <v>0.22477893999667636</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>1.3403610134338622</v>
+      </c>
+      <c r="C202">
+        <v>0.23641548284129371</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>1.3565689552144817</v>
+      </c>
+      <c r="C203">
+        <v>0.23049911382614291</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>1.3599978812850388</v>
+      </c>
+      <c r="C204">
+        <v>0.23990815469845361</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>1.3422577251347463</v>
+      </c>
+      <c r="C205">
+        <v>0.22905823419443613</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>1.3630921085115364</v>
+      </c>
+      <c r="C206">
+        <v>0.23129483687312991</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>1.3637892684135846</v>
+      </c>
+      <c r="C207">
+        <v>0.23875186307561752</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>1.3498357251754474</v>
+      </c>
+      <c r="C208">
+        <v>0.2499162272665246</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>1.3383225224569366</v>
+      </c>
+      <c r="C209">
+        <v>0.24428525917964578</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>1.3280183268284846</v>
+      </c>
+      <c r="C210">
+        <v>0.2569108319814673</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>1.34633417758973</v>
+      </c>
+      <c r="C211">
+        <v>0.27017142811782635</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>1.3400628437365476</v>
+      </c>
+      <c r="C212">
+        <v>0.25978386882852034</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>1.3494315740724359</v>
+      </c>
+      <c r="C213">
+        <v>0.2641018585835308</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>1.3389927002211635</v>
+      </c>
+      <c r="C214">
+        <v>0.25950441588922224</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>1.3414757878601833</v>
+      </c>
+      <c r="C215">
+        <v>0.2636606397717175</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>1.3375706933914091</v>
+      </c>
+      <c r="C216">
+        <v>0.2703322462066558</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>1.3471237279552428</v>
+      </c>
+      <c r="C217">
+        <v>0.26377287995494192</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>1.3367178327342299</v>
+      </c>
+      <c r="C218">
+        <v>0.27111588353796223</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>1.344425381067226</v>
+      </c>
+      <c r="C219">
+        <v>0.27416172843322173</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>1.3608320168359231</v>
+      </c>
+      <c r="C220">
+        <v>0.2883918162961131</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>1.3739765734990699</v>
+      </c>
+      <c r="C221">
+        <v>0.29668271584701128</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>1.3611976749133321</v>
+      </c>
+      <c r="C222">
+        <v>0.30275715802556175</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>1.3624344928502916</v>
+      </c>
+      <c r="C223">
+        <v>0.31068505263494756</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>1.3573115571294119</v>
+      </c>
+      <c r="C224">
+        <v>0.30549077726983476</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>1.3591028240810641</v>
+      </c>
+      <c r="C225">
+        <v>0.32282778894969882</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>1.3443974759401847</v>
+      </c>
+      <c r="C226">
+        <v>0.32887313812206465</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>1.3196269509668008</v>
+      </c>
+      <c r="C227">
+        <v>0.33109782389514558</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>1.3536833763131131</v>
+      </c>
+      <c r="C228">
+        <v>0.35086102118551321</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>1.3654317482539349</v>
+      </c>
+      <c r="C229">
+        <v>0.3784735295192449</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>1.3428546116801823</v>
+      </c>
+      <c r="C230">
+        <v>0.39906383235625525</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>1.3430753401634763</v>
+      </c>
+      <c r="C231">
+        <v>0.38743874457758437</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>1.32206057950304</v>
+      </c>
+      <c r="C232">
+        <v>0.36753952582125909</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>1.3469949186854806</v>
+      </c>
+      <c r="C233">
+        <v>0.35674039821922143</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>1.3618986647212026</v>
+      </c>
+      <c r="C234">
+        <v>0.33776781546358348</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>1.3687462004745814</v>
+      </c>
+      <c r="C235">
+        <v>0.32317613848609966</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>1.34907924225047</v>
+      </c>
+      <c r="C236">
+        <v>0.31662266824160534</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>1.3655026810589541</v>
+      </c>
+      <c r="C237">
+        <v>0.30933083121481197</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>1.3546763392027543</v>
+      </c>
+      <c r="C238">
+        <v>0.29323629897906456</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>1.3400097962375639</v>
+      </c>
+      <c r="C239">
+        <v>0.2875620724000052</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>1.3405749704335628</v>
+      </c>
+      <c r="C240">
+        <v>0.28909450026886879</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>1.3522812662679513</v>
+      </c>
+      <c r="C241">
+        <v>0.27574960530530851</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>1.367309573640529</v>
+      </c>
+      <c r="C242">
+        <v>0.27541808336334117</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>1.3783557035684311</v>
+      </c>
+      <c r="C243">
+        <v>0.27786674557729485</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>1.3800625874661443</v>
+      </c>
+      <c r="C244">
+        <v>0.2924112084706732</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>1.3493427909592575</v>
+      </c>
+      <c r="C245">
+        <v>0.28003452999393419</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>1.3511661162596993</v>
+      </c>
+      <c r="C246">
+        <v>0.28584633041873891</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>1.3486647882225165</v>
+      </c>
+      <c r="C247">
+        <v>0.28981064481117685</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>1.3454149304607426</v>
+      </c>
+      <c r="C248">
+        <v>0.27740001240471651</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>1.356473497113841</v>
+      </c>
+      <c r="C249">
+        <v>0.26644538573558901</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>1.3621294267478652</v>
+      </c>
+      <c r="C250">
+        <v>0.25726378726261684</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>1.3744044094538626</v>
+      </c>
+      <c r="C251">
+        <v>0.24951472911108685</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>1.374336596109214</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>1.3713165732639785</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>1.3739217003972168</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>1.3825281959463469</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>1.3675413869322517</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>1.3620922743378905</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>1.3663072116956454</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>1.3800756348009988</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>1.3713519080314847</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>1.3905933711450889</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>1.373357408050504</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>1.3869102743231758</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>1.3782636054858677</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>1.3947656970035565</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>1.3735519160969289</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>1.3920032447509407</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>1.3860013507038871</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>1.4014659888538787</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>1.3815210156791398</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>1.3603435990313619</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>1.3782139636204909</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>1.3727789714054841</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>1.3847651026600547</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>1.3673040993872394</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>1.3542523820286483</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>1.3627645622326767</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>1.360501110909176</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>1.3659778300865617</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>1.3655056569577937</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>1.3631496694835636</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>1.3606184260438436</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>1.3726254083274878</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>1.3790500732943161</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>1.3681493391390469</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>1.363571662722826</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>1.3669288774013928</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>1.3352815707493972</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>1.3548015701533784</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>1.3572759060429442</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>1.3483336797553556</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>1.3781291267321487</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>1.3720169969242815</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>1.3952706398144563</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>1.3699783628067224</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>1.3872119256003554</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>1.3782023368876335</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>1.3905958044985183</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>1.3819757904362553</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>1.3646633113494711</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>1.3868434022700333</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>1.3807772057854288</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>1.3654002945051911</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>1.375151435811536</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>1.3617455233409219</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>1.3542043603745679</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>1.3690015111200922</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>1.3774384077304498</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>1.3773762574934763</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>1.3743298240608033</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>1.3774451890333117</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>1.3616747904339479</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>1.3871277591857736</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>1.3851699193103035</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>1.3492754312956179</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>1.3685769496085438</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>1.3663682353790962</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>1.3609033666828294</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>1.3591692468240928</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>1.3595550130881662</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>1.3656720359475445</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>1.3658630355343917</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>1.3590384407077507</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>1.3682123524274254</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>1.3491377594454406</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>1.3539338453173344</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>1.3510638628665061</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>1.3473018840840933</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>1.3571603593023309</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>1.3600184885166791</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>1.3526822683357229</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>1.3617932799852965</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>1.3705929610648502</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>1.3727599576589</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>1.3690868039568158</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>1.3526169960026493</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>1.3703895767796377</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>1.3715401594516903</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>1.3805365005833181</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>1.3708184007330211</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>1.3549350496270689</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>1.3650369097413988</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>1.3574798965086359</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>1.3628501851292185</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>1.3642842961555406</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>1.3615278849779116</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>1.3705415884666385</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>1.3795841298897722</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>1.3673288972067565</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>1.3778579667724831</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>1.3802768476119869</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>1.3769726294981808</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>1.3716701640939164</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>1.3729646004687572</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>1.360250548083469</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>1.3519926585192303</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>1.3454236954482874</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>1.3326505186766864</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>1.3693797278177966</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>1.3639292340091769</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>1.3648862938851536</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>1.3624902091816407</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>1.3443166329778922</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>1.3464115726876802</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>1.3295932191650286</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>1.3357690423405308</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>1.3703518912667954</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>1.3615069275432301</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>1.3456539084149564</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>1.3480290921654414</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>1.3645325115746316</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>1.3587182953326893</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>1.3676461523030812</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>1.3520455083465646</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>1.3398256437791556</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>1.324578460834041</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>1.3479834758301343</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>1.3394780447871255</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>1.348712649159292</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>1.3509387630826961</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>1.3545521771249998</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>1.345968857931328</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>1.3470541507060902</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>1.3434062156526112</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>1.3514658285549803</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>1.3309421015100316</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>1.3461559794133484</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>1.3312279729200664</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>1.3417175465516946</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>1.3439278391101122</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>1.367663650821616</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>1.356615569119854</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>1.351028376139048</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>1.356629732026861</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>1.3555749330654072</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>1.3452954832904769</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>1.3408257399983574</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>1.3342483532041081</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>1.3178354296517796</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>1.3313033077701319</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>1.33267985345966</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>1.3266049112044496</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>1.3219602674679687</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>1.3220955332610032</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>1.3263836618324012</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>1.3253901906279442</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>1.3466015307057868</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>1.3664750079731527</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>1.3585025086299978</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>1.3524806845993231</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>1.3444395386767267</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>1.3280754488264361</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>1.3502047853207</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>1.3222586712456399</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>1.3282653493672292</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>1.3355490524061517</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>1.3384456008636096</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>1.3312300310936898</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>1.3245140280930672</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>1.3182666497706055</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>1.3418439162427274</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>1.3427009621130928</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>1.3466418663709439</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424">
+        <v>1.3604487515268788</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>1.3381614075710551</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>1.3484565648200693</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>1.3484085634082379</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>1.3344810017046285</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>1.3311796099387811</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>1.3314897713861782</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>1.3294983395620659</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432">
+        <v>1.3378166834036174</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433">
+        <v>1.317132660635967</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434">
+        <v>1.3478203676906941</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="B435">
+        <v>1.3179357203957829</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="B436">
+        <v>1.3151655373213547</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="B437">
+        <v>1.3246710036117353</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>1.3210575415550687</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>1.3255502599129474</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440">
+        <v>1.330324680438822</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441">
+        <v>1.3297969363534172</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442">
+        <v>1.3477115083820466</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443">
+        <v>1.3268770512727743</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444">
+        <v>1.3226209338867698</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445">
+        <v>1.3270799237848667</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446">
+        <v>1.3108184422949656</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447">
+        <v>1.3309582624087668</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448">
+        <v>1.3596822832514071</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449">
+        <v>1.3354256047672992</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450">
+        <v>1.3360635810967332</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451">
+        <v>1.3383167514703289</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452">
+        <v>1.3472534319604574</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453">
+        <v>1.3585908188867799</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454">
+        <v>1.3334171953637712</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455">
+        <v>1.3341226228672243</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456">
+        <v>1.331867917152179</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457">
+        <v>1.3406313009845696</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458">
+        <v>1.3604966488014816</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459">
+        <v>1.3362886363307771</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460">
+        <v>1.3333708960605333</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461">
+        <v>1.3269436350825941</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462">
+        <v>1.345802579294316</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463">
+        <v>1.3538562142578439</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464">
+        <v>1.3350358383407694</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465">
+        <v>1.3341334291415987</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466">
+        <v>1.3321674840066793</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467">
+        <v>1.3249205788570888</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468">
+        <v>1.3259963108760728</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469">
+        <v>1.3064842474719449</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470">
+        <v>1.3130833917823728</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>470</v>
+      </c>
+      <c r="B471">
+        <v>1.3154913969828121</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>471</v>
+      </c>
+      <c r="B472">
+        <v>1.3291129116868801</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>472</v>
+      </c>
+      <c r="B473">
+        <v>1.3281673469503494</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>473</v>
+      </c>
+      <c r="B474">
+        <v>1.3329793380181649</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>474</v>
+      </c>
+      <c r="B475">
+        <v>1.3435793964595393</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>475</v>
+      </c>
+      <c r="B476">
+        <v>1.3343994052289876</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>476</v>
+      </c>
+      <c r="B477">
+        <v>1.302790605025729</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>477</v>
+      </c>
+      <c r="B478">
+        <v>1.3476185210180329</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>478</v>
+      </c>
+      <c r="B479">
+        <v>1.3283171731196668</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>479</v>
+      </c>
+      <c r="B480">
+        <v>1.3351328500251469</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>480</v>
+      </c>
+      <c r="B481">
+        <v>1.3465469140660655</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>481</v>
+      </c>
+      <c r="B482">
+        <v>1.3345116314222727</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>482</v>
+      </c>
+      <c r="B483">
+        <v>1.3254102408920643</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>483</v>
+      </c>
+      <c r="B484">
+        <v>1.3102908080579561</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>484</v>
+      </c>
+      <c r="B485">
+        <v>1.2922237855783081</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>485</v>
+      </c>
+      <c r="B486">
+        <v>1.2957127950519651</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>486</v>
+      </c>
+      <c r="B487">
+        <v>1.2966192676562107</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>487</v>
+      </c>
+      <c r="B488">
+        <v>1.2988995432528292</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>488</v>
+      </c>
+      <c r="B489">
+        <v>1.3197626550633452</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>489</v>
+      </c>
+      <c r="B490">
+        <v>1.3215786148129538</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>490</v>
+      </c>
+      <c r="B491">
+        <v>1.3160082262053714</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>491</v>
+      </c>
+      <c r="B492">
+        <v>1.3146630011147828</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>492</v>
+      </c>
+      <c r="B493">
+        <v>1.3304168965089411</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>493</v>
+      </c>
+      <c r="B494">
+        <v>1.3209201862276214</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>494</v>
+      </c>
+      <c r="B495">
+        <v>1.3076004558928076</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>495</v>
+      </c>
+      <c r="B496">
+        <v>1.3151031536641822</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>496</v>
+      </c>
+      <c r="B497">
+        <v>1.3090783810851547</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>497</v>
+      </c>
+      <c r="B498">
+        <v>1.3194327649437556</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>498</v>
+      </c>
+      <c r="B499">
+        <v>1.3115818432882629</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>499</v>
+      </c>
+      <c r="B500">
+        <v>1.3175646981520999</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>500</v>
+      </c>
+      <c r="B501">
+        <v>1.3189459323055446</v>
       </c>
     </row>
   </sheetData>
